--- a/scene_cat_exp_2023.2.2_english/input_files/35_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/35_scenecat_memory_living_rooms_1.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -500,37 +500,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_a9he3.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>81.73809523809524</v>
+        <v>83.06521739130434</v>
       </c>
       <c r="N2">
-        <v>62.73809523809524</v>
+        <v>63.95652173913044</v>
       </c>
       <c r="O2">
-        <v>72.23809523809524</v>
+        <v>73.51086956521739</v>
       </c>
       <c r="P2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -561,7 +556,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -594,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_196rk.png</t>
+          <t>stimuli/img_o30wb.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>86.53488372093024</v>
+        <v>81.06666666666666</v>
       </c>
       <c r="N3">
-        <v>69.46511627906976</v>
+        <v>65.37777777777778</v>
       </c>
       <c r="O3">
-        <v>78</v>
+        <v>73.22222222222223</v>
       </c>
       <c r="P3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +633,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -659,55 +654,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_j73b6.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>21.5609756097561</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N4">
-        <v>19.90243902439024</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O4">
-        <v>20.73170731707317</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P4">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +710,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -741,50 +731,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_wbws6.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>49.3695652173913</v>
+        <v>57.97777777777777</v>
       </c>
       <c r="N5">
-        <v>30.21739130434782</v>
+        <v>42.53333333333333</v>
       </c>
       <c r="O5">
-        <v>39.79347826086956</v>
+        <v>50.25555555555555</v>
       </c>
       <c r="P5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -797,7 +792,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -830,38 +825,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_5jy9c.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>73.625</v>
+        <v>87.37209302325581</v>
       </c>
       <c r="N6">
-        <v>52.275</v>
+        <v>79.18604651162791</v>
       </c>
       <c r="O6">
-        <v>62.95</v>
+        <v>83.27906976744185</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -874,7 +869,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -912,38 +907,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_tv8e2.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>71.93023255813954</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N7">
-        <v>50.25581395348837</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O7">
-        <v>61.09302325581395</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -956,7 +951,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -977,55 +972,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_9bkl9.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>13.68181818181818</v>
+        <v>46.62162162162162</v>
       </c>
       <c r="N8">
-        <v>8.568181818181818</v>
+        <v>34.27027027027027</v>
       </c>
       <c r="O8">
-        <v>11.125</v>
+        <v>40.44594594594595</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1038,7 +1028,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1071,38 +1061,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>56.45238095238095</v>
+        <v>73</v>
       </c>
       <c r="N9">
-        <v>39.42857142857143</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O9">
-        <v>47.94047619047619</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1115,7 +1105,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1153,38 +1143,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_9684y.png</t>
+          <t>stimuli/img_hmmra.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>77.95744680851064</v>
+        <v>54.65853658536585</v>
       </c>
       <c r="N10">
-        <v>56.70212765957447</v>
+        <v>34.24390243902439</v>
       </c>
       <c r="O10">
-        <v>67.32978723404256</v>
+        <v>44.45121951219512</v>
       </c>
       <c r="P10">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1187,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1230,38 +1220,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_165pk.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>46.02173913043478</v>
+        <v>85.73333333333333</v>
       </c>
       <c r="N11">
-        <v>31.45652173913043</v>
+        <v>69.22222222222223</v>
       </c>
       <c r="O11">
-        <v>38.73913043478261</v>
+        <v>77.47777777777779</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1274,7 +1264,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1312,38 +1302,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_5jp4f.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>62.30232558139535</v>
+        <v>84.85714285714286</v>
       </c>
       <c r="N12">
-        <v>39.97674418604651</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="O12">
-        <v>51.13953488372093</v>
+        <v>76.3452380952381</v>
       </c>
       <c r="P12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1356,7 +1346,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1377,50 +1367,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_s2zoe.png</t>
+          <t>stimuli/img_b21d7.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>64.71428571428571</v>
+        <v>27.75555555555556</v>
       </c>
       <c r="N13">
-        <v>44.90476190476191</v>
+        <v>13.86666666666667</v>
       </c>
       <c r="O13">
-        <v>54.80952380952381</v>
+        <v>20.81111111111111</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1433,7 +1428,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1466,38 +1461,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_jpldg.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>82.47619047619048</v>
+        <v>79.54545454545455</v>
       </c>
       <c r="N14">
-        <v>65.5</v>
+        <v>57.75</v>
       </c>
       <c r="O14">
-        <v>73.98809523809524</v>
+        <v>68.64772727272728</v>
       </c>
       <c r="P14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1510,7 +1505,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1548,38 +1543,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_vnxft.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>53.22727272727273</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N15">
-        <v>34.84090909090909</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O15">
-        <v>44.03409090909091</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P15">
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1592,7 +1587,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1608,9 +1603,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1620,8 +1620,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/catch_28.jpg</t>
-        </is>
+          <t>stimuli/img_3sw8t.png</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>67.48888888888889</v>
+      </c>
+      <c r="N16">
+        <v>48.51111111111111</v>
+      </c>
+      <c r="O16">
+        <v>58</v>
+      </c>
+      <c r="P16">
+        <v>45</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1634,7 +1664,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1672,38 +1702,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_vg73h.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>87.7</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N17">
-        <v>72.40000000000001</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O17">
-        <v>80.05000000000001</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P17">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1716,7 +1746,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1749,38 +1779,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_5nlnv.png</t>
+          <t>stimuli/img_pbsj1.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>86.1219512195122</v>
+        <v>73.88636363636364</v>
       </c>
       <c r="N18">
-        <v>69.19512195121951</v>
+        <v>51.52272727272727</v>
       </c>
       <c r="O18">
-        <v>77.65853658536585</v>
+        <v>62.70454545454545</v>
       </c>
       <c r="P18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1793,7 +1823,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1831,38 +1861,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_sx68r.png</t>
+          <t>stimuli/img_gka64.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>19.23809523809524</v>
       </c>
       <c r="N19">
-        <v>33.2051282051282</v>
+        <v>20.02380952380953</v>
       </c>
       <c r="O19">
-        <v>43.6025641025641</v>
+        <v>19.63095238095238</v>
       </c>
       <c r="P19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1875,7 +1905,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1896,34 +1926,29 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_r10cu.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>78.52380952380952</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N20">
-        <v>56.14285714285715</v>
+        <v>58</v>
       </c>
       <c r="O20">
-        <v>67.33333333333333</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P20">
         <v>42</v>
@@ -1944,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1957,7 +1982,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1978,50 +2003,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_lzz3x.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>18.46341463414634</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N21">
-        <v>11.92682926829268</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O21">
-        <v>15.19512195121951</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P21">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2034,7 +2064,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2055,37 +2085,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_xzyzy.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>86.63414634146342</v>
+        <v>85.37209302325581</v>
       </c>
       <c r="N22">
-        <v>66.63414634146342</v>
+        <v>68.90697674418605</v>
       </c>
       <c r="O22">
-        <v>76.63414634146342</v>
+        <v>77.13953488372093</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -2097,13 +2122,13 @@
         <v>9</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>9</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2116,7 +2141,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2154,38 +2179,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_njhlh.png</t>
+          <t>stimuli/img_c89x3.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>59.74418604651163</v>
+        <v>72.8695652173913</v>
       </c>
       <c r="N23">
-        <v>41.51162790697674</v>
+        <v>49.65217391304348</v>
       </c>
       <c r="O23">
-        <v>50.62790697674419</v>
+        <v>61.26086956521739</v>
       </c>
       <c r="P23">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2198,7 +2223,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2236,17 +2261,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_mdh76.png</t>
+          <t>stimuli/img_pjfx6.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>37.31914893617022</v>
+        <v>32.23404255319149</v>
       </c>
       <c r="N24">
-        <v>25.12765957446809</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="O24">
-        <v>31.22340425531915</v>
+        <v>29.41489361702127</v>
       </c>
       <c r="P24">
         <v>47</v>
@@ -2264,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
         <v>3</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2280,7 +2305,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2318,38 +2343,38 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_6wne4.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>25.16279069767442</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N25">
-        <v>15</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O25">
-        <v>20.08139534883721</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P25">
         <v>43</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2362,7 +2387,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2395,38 +2420,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_37hgm.png</t>
+          <t>stimuli/img_c0vzo.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>70.95454545454545</v>
+        <v>21.51162790697675</v>
       </c>
       <c r="N26">
-        <v>54.77272727272727</v>
+        <v>8.232558139534884</v>
       </c>
       <c r="O26">
-        <v>62.86363636363636</v>
+        <v>14.87209302325581</v>
       </c>
       <c r="P26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2439,7 +2464,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2472,38 +2497,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_jpjeg.png</t>
+          <t>stimuli/img_wgddx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>90.90697674418605</v>
+        <v>45.6304347826087</v>
       </c>
       <c r="N27">
-        <v>74.3953488372093</v>
+        <v>34.30434782608695</v>
       </c>
       <c r="O27">
-        <v>82.65116279069767</v>
+        <v>39.96739130434783</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2516,7 +2541,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2537,50 +2562,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_5tr4v.png</t>
+          <t>stimuli/img_j856a.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>56.86046511627907</v>
+        <v>38.225</v>
       </c>
       <c r="N28">
-        <v>39.3953488372093</v>
+        <v>25.875</v>
       </c>
       <c r="O28">
-        <v>48.12790697674419</v>
+        <v>32.05</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2593,7 +2623,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2609,60 +2639,20 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_3ze38.png</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>35.53191489361702</v>
-      </c>
-      <c r="N29">
-        <v>28.4468085106383</v>
-      </c>
-      <c r="O29">
-        <v>31.98936170212766</v>
-      </c>
-      <c r="P29">
-        <v>47</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
-        <v>3</v>
+          <t>stimuli/catch_05.jpg</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2675,7 +2665,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2696,50 +2686,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_q9lab.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>30.34883720930232</v>
+        <v>53.97560975609756</v>
       </c>
       <c r="N30">
-        <v>20.34883720930232</v>
+        <v>32.90243902439025</v>
       </c>
       <c r="O30">
-        <v>25.34883720930232</v>
+        <v>43.4390243902439</v>
       </c>
       <c r="P30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2752,7 +2747,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2785,38 +2780,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>31.64444444444445</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N31">
-        <v>21.26666666666667</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O31">
-        <v>26.45555555555556</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P31">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2829,7 +2824,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2862,38 +2857,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_eiu3c.png</t>
+          <t>stimuli/img_8dmpq.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>65.15909090909091</v>
+        <v>30.65909090909091</v>
       </c>
       <c r="N32">
-        <v>46.22727272727273</v>
+        <v>24.11363636363636</v>
       </c>
       <c r="O32">
-        <v>55.69318181818181</v>
+        <v>27.38636363636364</v>
       </c>
       <c r="P32">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2906,7 +2901,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2944,38 +2939,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_vgaye.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>85.51162790697674</v>
+        <v>80.33333333333333</v>
       </c>
       <c r="N33">
-        <v>67.86046511627907</v>
+        <v>64.57777777777778</v>
       </c>
       <c r="O33">
-        <v>76.68604651162791</v>
+        <v>72.45555555555555</v>
       </c>
       <c r="P33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2988,7 +2983,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3009,55 +3004,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_99exx.png</t>
+          <t>stimuli/img_jkm86.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>70.02272727272727</v>
+        <v>58.32558139534883</v>
       </c>
       <c r="N34">
-        <v>51.88636363636363</v>
+        <v>38.65116279069768</v>
       </c>
       <c r="O34">
-        <v>60.95454545454545</v>
+        <v>48.48837209302326</v>
       </c>
       <c r="P34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3070,7 +3060,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3091,50 +3081,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_tbs4n.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>78.95744680851064</v>
+        <v>61.275</v>
       </c>
       <c r="N35">
-        <v>58.97872340425532</v>
+        <v>42.025</v>
       </c>
       <c r="O35">
-        <v>68.96808510638297</v>
+        <v>51.65</v>
       </c>
       <c r="P35">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3147,7 +3142,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3168,55 +3163,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_bg264.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>87.9047619047619</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N36">
-        <v>71.5</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O36">
-        <v>79.70238095238095</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P36">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3229,7 +3219,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3250,50 +3240,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_qz292.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>78.26666666666667</v>
+        <v>70.75</v>
       </c>
       <c r="N37">
-        <v>59.13333333333333</v>
+        <v>50.375</v>
       </c>
       <c r="O37">
-        <v>68.7</v>
+        <v>60.5625</v>
       </c>
       <c r="P37">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -3306,7 +3301,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3327,55 +3322,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_nb8p4.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>94.04347826086956</v>
+        <v>16.36170212765957</v>
       </c>
       <c r="N38">
-        <v>83.34782608695652</v>
+        <v>12.70212765957447</v>
       </c>
       <c r="O38">
-        <v>88.69565217391303</v>
+        <v>14.53191489361702</v>
       </c>
       <c r="P38">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3378,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3409,50 +3399,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_il020.png</t>
+          <t>stimuli/img_x4bln.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>18.85416666666667</v>
+        <v>76.34042553191489</v>
       </c>
       <c r="N39">
-        <v>16.16666666666667</v>
+        <v>59.51063829787234</v>
       </c>
       <c r="O39">
-        <v>17.51041666666667</v>
+        <v>67.92553191489361</v>
       </c>
       <c r="P39">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3465,7 +3460,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3486,50 +3481,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_z4jxm.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>82.79069767441861</v>
+        <v>88.30952380952381</v>
       </c>
       <c r="N40">
-        <v>65.46511627906976</v>
+        <v>72.64285714285714</v>
       </c>
       <c r="O40">
-        <v>74.12790697674419</v>
+        <v>80.47619047619048</v>
       </c>
       <c r="P40">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3563,55 +3563,50 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>81.40909090909091</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N41">
-        <v>62.52272727272727</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O41">
-        <v>71.96590909090909</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P41">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3624,7 +3619,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3645,50 +3640,55 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_x9w7o.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>92.38888888888889</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N42">
-        <v>72.94444444444444</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O42">
-        <v>82.66666666666666</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P42">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
